--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cthrc1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H2">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J2">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1389836666666667</v>
+        <v>0.028814</v>
       </c>
       <c r="N2">
-        <v>0.416951</v>
+        <v>0.086442</v>
       </c>
       <c r="O2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="P2">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="Q2">
-        <v>0.07264138853155555</v>
+        <v>0.02483247187533334</v>
       </c>
       <c r="R2">
-        <v>0.6537724967840001</v>
+        <v>0.223492246878</v>
       </c>
       <c r="S2">
-        <v>7.240833046335639E-05</v>
+        <v>2.511254716162988E-05</v>
       </c>
       <c r="T2">
-        <v>7.240833046335639E-05</v>
+        <v>2.511254716162987E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H3">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J3">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>22.132767</v>
       </c>
       <c r="O3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340737</v>
       </c>
       <c r="P3">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340736</v>
       </c>
       <c r="Q3">
-        <v>3.855980503525333</v>
+        <v>6.358151292783668</v>
       </c>
       <c r="R3">
-        <v>34.703824531728</v>
+        <v>57.22336163505301</v>
       </c>
       <c r="S3">
-        <v>0.003843609217880444</v>
+        <v>0.00642986227880967</v>
       </c>
       <c r="T3">
-        <v>0.003843609217880444</v>
+        <v>0.006429862278809667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5226613333333333</v>
+        <v>0.8618196666666668</v>
       </c>
       <c r="H4">
-        <v>1.567984</v>
+        <v>2.585459</v>
       </c>
       <c r="I4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421759</v>
       </c>
       <c r="J4">
-        <v>0.004118772370031606</v>
+        <v>0.006773656541421758</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3891763333333333</v>
+        <v>0.3656536666666667</v>
       </c>
       <c r="N4">
-        <v>1.167529</v>
+        <v>1.096961</v>
       </c>
       <c r="O4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="P4">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="Q4">
-        <v>0.2034074212817778</v>
+        <v>0.3151275211221112</v>
       </c>
       <c r="R4">
-        <v>1.830666791536</v>
+        <v>2.836147690099001</v>
       </c>
       <c r="S4">
-        <v>0.0002027548216878051</v>
+        <v>0.0003186817154504601</v>
       </c>
       <c r="T4">
-        <v>0.0002027548216878051</v>
+        <v>0.00031868171545046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>377.66182</v>
       </c>
       <c r="I5">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J5">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1389836666666667</v>
+        <v>0.028814</v>
       </c>
       <c r="N5">
-        <v>0.416951</v>
+        <v>0.086442</v>
       </c>
       <c r="O5">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="P5">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="Q5">
-        <v>17.49627483453556</v>
+        <v>3.627315893826667</v>
       </c>
       <c r="R5">
-        <v>157.46647351082</v>
+        <v>32.64584304444001</v>
       </c>
       <c r="S5">
-        <v>0.01744014088533596</v>
+        <v>0.003668226905124766</v>
       </c>
       <c r="T5">
-        <v>0.01744014088533596</v>
+        <v>0.003668226905124766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>377.66182</v>
       </c>
       <c r="I6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J6">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +809,10 @@
         <v>22.132767</v>
       </c>
       <c r="O6">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340737</v>
       </c>
       <c r="P6">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340736</v>
       </c>
       <c r="Q6">
         <v>928.7445629839934</v>
@@ -818,10 +821,10 @@
         <v>8358.701066855941</v>
       </c>
       <c r="S6">
-        <v>0.9257648372646056</v>
+        <v>0.9392194927726979</v>
       </c>
       <c r="T6">
-        <v>0.9257648372646056</v>
+        <v>0.9392194927726978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -850,40 +853,40 @@
         <v>377.66182</v>
       </c>
       <c r="I7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="J7">
-        <v>0.9920401416289004</v>
+        <v>0.9894380291809874</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3891763333333333</v>
+        <v>0.3656536666666667</v>
       </c>
       <c r="N7">
-        <v>1.167529</v>
+        <v>1.096961</v>
       </c>
       <c r="O7">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="P7">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="Q7">
-        <v>48.99234744919778</v>
+        <v>46.03114308100223</v>
       </c>
       <c r="R7">
-        <v>440.9311270427801</v>
+        <v>414.2802877290201</v>
       </c>
       <c r="S7">
-        <v>0.04883516347895894</v>
+        <v>0.04655030950316476</v>
       </c>
       <c r="T7">
-        <v>0.04883516347895894</v>
+        <v>0.04655030950316476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4874236666666667</v>
+        <v>0.4264636666666666</v>
       </c>
       <c r="H8">
-        <v>1.462271</v>
+        <v>1.279391</v>
       </c>
       <c r="I8">
-        <v>0.003841086001067924</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="J8">
-        <v>0.003841086001067923</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1389836666666667</v>
+        <v>0.028814</v>
       </c>
       <c r="N8">
-        <v>0.416951</v>
+        <v>0.086442</v>
       </c>
       <c r="O8">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="P8">
-        <v>0.01758007579884798</v>
+        <v>0.003707384188741118</v>
       </c>
       <c r="Q8">
-        <v>0.06774392841344445</v>
+        <v>0.01228812409133333</v>
       </c>
       <c r="R8">
-        <v>0.6096953557210001</v>
+        <v>0.110593116822</v>
       </c>
       <c r="S8">
-        <v>6.752658304866798E-05</v>
+        <v>1.242671681340327E-05</v>
       </c>
       <c r="T8">
-        <v>6.752658304866798E-05</v>
+        <v>1.242671681340327E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,31 +956,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4874236666666667</v>
+        <v>0.4264636666666666</v>
       </c>
       <c r="H9">
-        <v>1.462271</v>
+        <v>1.279391</v>
       </c>
       <c r="I9">
-        <v>0.003841086001067924</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="J9">
-        <v>0.003841086001067923</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +995,22 @@
         <v>22.132767</v>
       </c>
       <c r="O9">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340737</v>
       </c>
       <c r="P9">
-        <v>0.9331929207466617</v>
+        <v>0.9492453949340736</v>
       </c>
       <c r="Q9">
-        <v>3.596011481539667</v>
+        <v>3.146273656099666</v>
       </c>
       <c r="R9">
-        <v>32.364103333857</v>
+        <v>28.316462904897</v>
       </c>
       <c r="S9">
-        <v>0.003584474264175691</v>
+        <v>0.003181759188890089</v>
       </c>
       <c r="T9">
-        <v>0.00358447426417569</v>
+        <v>0.003181759188890088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4874236666666667</v>
+        <v>0.4264636666666666</v>
       </c>
       <c r="H10">
-        <v>1.462271</v>
+        <v>1.279391</v>
       </c>
       <c r="I10">
-        <v>0.003841086001067924</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="J10">
-        <v>0.003841086001067923</v>
+        <v>0.00335188267003504</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3891763333333333</v>
+        <v>0.3656536666666667</v>
       </c>
       <c r="N10">
-        <v>1.167529</v>
+        <v>1.096961</v>
       </c>
       <c r="O10">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="P10">
-        <v>0.04922700345449031</v>
+        <v>0.04704722087718523</v>
       </c>
       <c r="Q10">
-        <v>0.1896937553732223</v>
+        <v>0.1559380034167778</v>
       </c>
       <c r="R10">
-        <v>1.707243798359</v>
+        <v>1.403442030751</v>
       </c>
       <c r="S10">
-        <v>0.0001890851538435651</v>
+        <v>0.0001576967643315479</v>
       </c>
       <c r="T10">
-        <v>0.000189085153843565</v>
+        <v>0.0001576967643315479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.166583</v>
+      </c>
+      <c r="I11">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J11">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.028814</v>
+      </c>
+      <c r="N11">
+        <v>0.086442</v>
+      </c>
+      <c r="O11">
+        <v>0.003707384188741118</v>
+      </c>
+      <c r="P11">
+        <v>0.003707384188741118</v>
+      </c>
+      <c r="Q11">
+        <v>0.001599974187333334</v>
+      </c>
+      <c r="R11">
+        <v>0.014399767686</v>
+      </c>
+      <c r="S11">
+        <v>1.618019641319313E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.618019641319313E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.166583</v>
+      </c>
+      <c r="I12">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J12">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.377589</v>
+      </c>
+      <c r="N12">
+        <v>22.132767</v>
+      </c>
+      <c r="O12">
+        <v>0.9492453949340737</v>
+      </c>
+      <c r="P12">
+        <v>0.9492453949340736</v>
+      </c>
+      <c r="Q12">
+        <v>0.4096603027956667</v>
+      </c>
+      <c r="R12">
+        <v>3.686942725161</v>
+      </c>
+      <c r="S12">
+        <v>0.0004142806936760363</v>
+      </c>
+      <c r="T12">
+        <v>0.0004142806936760362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05552766666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.166583</v>
+      </c>
+      <c r="I13">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="J13">
+        <v>0.0004364316075558192</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3656536666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.096961</v>
+      </c>
+      <c r="O13">
+        <v>0.04704722087718523</v>
+      </c>
+      <c r="P13">
+        <v>0.04704722087718523</v>
+      </c>
+      <c r="Q13">
+        <v>0.02030389491811111</v>
+      </c>
+      <c r="R13">
+        <v>0.182735054263</v>
+      </c>
+      <c r="S13">
+        <v>2.053289423846365E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.053289423846365E-05</v>
       </c>
     </row>
   </sheetData>
